--- a/Non-domestic-multi-zone-average-usage-profiles-for-Germany.xlsx
+++ b/Non-domestic-multi-zone-average-usage-profiles-for-Germany.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/Non-domestic-multi-zone-average-usage-profiles-for-Germany/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4DB114E441178AC67DF4615ED5FEA8693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4641D31A-68FE-4F00-826F-6E1366622ECC}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="11_AD4DB114E441178AC67DF4615ED5FEA8693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C24A136-C671-4FE8-AF53-BEF7EC5A2A05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="usage_profiles" sheetId="1" r:id="rId1"/>
+    <sheet name="usage_profile_variable_descript" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Matrix_F_a_jj">[1]F_jj!$BS$2:$CT$29</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="322">
   <si>
     <t>ID_Enob_lfd</t>
   </si>
@@ -845,6 +846,183 @@
   <si>
     <t>Bez_UK_Enob_Eng</t>
   </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>German Label</t>
+  </si>
+  <si>
+    <t>English Label</t>
+  </si>
+  <si>
+    <t>Nutzung Beginn</t>
+  </si>
+  <si>
+    <t>Nutzung Ende</t>
+  </si>
+  <si>
+    <t>tägliche Nutzungsstunden</t>
+  </si>
+  <si>
+    <t>jährliche Nutzungsstunden zur Tagzeit</t>
+  </si>
+  <si>
+    <t>jährliche Nutzungsstunden zur Nachtzeit</t>
+  </si>
+  <si>
+    <t>tägliche Betriebsstunden RLT und Kühlung</t>
+  </si>
+  <si>
+    <t>Höhe der Nutzebene</t>
+  </si>
+  <si>
+    <t>Relative Abwesenheit</t>
+  </si>
+  <si>
+    <t>Raumindex</t>
+  </si>
+  <si>
+    <t>Maximaltemperatur Auslegung Kühlung</t>
+  </si>
+  <si>
+    <t>Feuchteanforderung</t>
+  </si>
+  <si>
+    <t>Mindestaußenluftvolumenstrom</t>
+  </si>
+  <si>
+    <t>tägliche Betriebsstunden Heizung</t>
+  </si>
+  <si>
+    <t>Wartungswert der Beleuchtungsstärke</t>
+  </si>
+  <si>
+    <t>Minderungsfaktor Bereich Sehaufgabe</t>
+  </si>
+  <si>
+    <t>Teilbetriebsfaktor der Gebäudebetriebszeit für Beleuchtung</t>
+  </si>
+  <si>
+    <t>Anpassungsfaktor zur Beleuchtung vertikaler Flächen</t>
+  </si>
+  <si>
+    <t>Raum-Solltemperatur Heizung</t>
+  </si>
+  <si>
+    <t>Raum-Solltemperatur Kühlung</t>
+  </si>
+  <si>
+    <t>Temperaturabsenkung reduzierter Betrieb</t>
+  </si>
+  <si>
+    <t>Minimaltemperatur Auslegung Heizung</t>
+  </si>
+  <si>
+    <t>MindestaußenVolumenstrom für Gebäude (Klasse II  Schadstoffarm DIN EN 15251)</t>
+  </si>
+  <si>
+    <t>Relative Abwesenheit RLT</t>
+  </si>
+  <si>
+    <t>Teilbetriebsfaktor der Gebäudebetriebszeit RLT</t>
+  </si>
+  <si>
+    <t>daily usage hours</t>
+  </si>
+  <si>
+    <t>jährliche Nutzungstage</t>
+  </si>
+  <si>
+    <t>annual days of usage</t>
+  </si>
+  <si>
+    <t>annual usage hours during daylight</t>
+  </si>
+  <si>
+    <t>annual usage hours during darkness</t>
+  </si>
+  <si>
+    <t>daily system usage hours for ventilation and cooling systems</t>
+  </si>
+  <si>
+    <t>jährliche Betriebstage für jeweils RLT, Kühlung und Heizung</t>
+  </si>
+  <si>
+    <t>annual system usage days for ventilation, cooling and heating systems</t>
+  </si>
+  <si>
+    <t>daily system usage hours for heating systems</t>
+  </si>
+  <si>
+    <t>maintenance value of the illuminance</t>
+  </si>
+  <si>
+    <t>end time of usage</t>
+  </si>
+  <si>
+    <t>start time of usage</t>
+  </si>
+  <si>
+    <t>hight above the floor of the to be illuminated working plane</t>
+  </si>
+  <si>
+    <t>reduction factor for the area of visiual working</t>
+  </si>
+  <si>
+    <t>relative absence</t>
+  </si>
+  <si>
+    <t>room index (type of room geometry for lighting calculation)</t>
+  </si>
+  <si>
+    <t>partial operation factor of the building operation time for lighting</t>
+  </si>
+  <si>
+    <t>adaption factor for the lighting of vertical areas</t>
+  </si>
+  <si>
+    <t>requiered temperature for the heating case</t>
+  </si>
+  <si>
+    <t>requiered temperature for the cooling case</t>
+  </si>
+  <si>
+    <t>temperature reduction during times of reduced building operation</t>
+  </si>
+  <si>
+    <t>minimum design temperature for heating case</t>
+  </si>
+  <si>
+    <t>maximum design temperature for cooling case</t>
+  </si>
+  <si>
+    <t>humidity requierement</t>
+  </si>
+  <si>
+    <t>minimum requiered air change rate of fresh air from outside the building</t>
+  </si>
+  <si>
+    <t>minimum requiered air change rate of fresh air from outside the building for buildings meeting the pollutants low-emission class II of the DIN EN 15251</t>
+  </si>
+  <si>
+    <t>relative absence for ventilation</t>
+  </si>
+  <si>
+    <t>partial operation factor of the building operation time for ventilation</t>
+  </si>
+  <si>
+    <t>Wärmequellen durch Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wärmequellen durch Arbeitshilfen </t>
+  </si>
+  <si>
+    <t>internal gains through peoples metabolism</t>
+  </si>
+  <si>
+    <t>internal gains through appliances</t>
+  </si>
 </sst>
 </file>
 
@@ -867,7 +1045,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,8 +1070,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -901,16 +1085,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -962,6 +1167,7 @@
       <sheetName val="Datenbank_Nutzungen"/>
       <sheetName val="HK_Nutzungsprofile"/>
       <sheetName val="UK_Standardnutzungen"/>
+      <sheetName val="DINV18599_usageprofile_V4"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -46292,9 +46498,14 @@
       <sheetData sheetId="24" refreshError="1"/>
       <sheetData sheetId="25" refreshError="1"/>
       <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46562,18 +46773,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.42578125" customWidth="1"/>
-    <col min="5" max="5" width="116.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="116.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -46595,88 +46806,88 @@
       <c r="F1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -57699,4 +57910,343 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1785960D-09D0-45C7-B6DB-24436F9D79A2}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
+    <col min="3" max="3" width="137.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>